--- a/ajout-NS/ig/CodeSystem-type-carte-code-system.xlsx
+++ b/ajout-NS/ig/CodeSystem-type-carte-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-21T14:05:12+00:00</t>
+    <t>2025-11-24T09:10:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ajout-NS/ig/CodeSystem-type-carte-code-system.xlsx
+++ b/ajout-NS/ig/CodeSystem-type-carte-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T09:10:09+00:00</t>
+    <t>2025-12-10T15:24:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ajout-NS/ig/CodeSystem-type-carte-code-system.xlsx
+++ b/ajout-NS/ig/CodeSystem-type-carte-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-10T15:24:35+00:00</t>
+    <t>2025-12-12T08:58:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ajout-NS/ig/CodeSystem-type-carte-code-system.xlsx
+++ b/ajout-NS/ig/CodeSystem-type-carte-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-12T08:58:14+00:00</t>
+    <t>2025-12-15T09:50:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ajout-NS/ig/CodeSystem-type-carte-code-system.xlsx
+++ b/ajout-NS/ig/CodeSystem-type-carte-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-15T09:50:21+00:00</t>
+    <t>2025-12-18T16:07:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ajout-NS/ig/CodeSystem-type-carte-code-system.xlsx
+++ b/ajout-NS/ig/CodeSystem-type-carte-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-18T16:07:19+00:00</t>
+    <t>2026-01-12T10:17:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ajout-NS/ig/CodeSystem-type-carte-code-system.xlsx
+++ b/ajout-NS/ig/CodeSystem-type-carte-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-12T10:17:19+00:00</t>
+    <t>2026-01-12T15:58:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ajout-NS/ig/CodeSystem-type-carte-code-system.xlsx
+++ b/ajout-NS/ig/CodeSystem-type-carte-code-system.xlsx
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/[code]/CodeSystem/type-carte-code-system</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/nde/CodeSystem/type-carte-code-system</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>3.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-12T15:58:11+00:00</t>
+    <t>2026-01-15T15:18:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ajout-NS/ig/CodeSystem-type-carte-code-system.xlsx
+++ b/ajout-NS/ig/CodeSystem-type-carte-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-15T15:18:49+00:00</t>
+    <t>2026-01-16T10:54:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ajout-NS/ig/CodeSystem-type-carte-code-system.xlsx
+++ b/ajout-NS/ig/CodeSystem-type-carte-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-16T10:54:57+00:00</t>
+    <t>2026-01-21T08:53:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ajout-NS/ig/CodeSystem-type-carte-code-system.xlsx
+++ b/ajout-NS/ig/CodeSystem-type-carte-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-21T08:53:00+00:00</t>
+    <t>2026-01-21T09:24:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ajout-NS/ig/CodeSystem-type-carte-code-system.xlsx
+++ b/ajout-NS/ig/CodeSystem-type-carte-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-21T09:24:18+00:00</t>
+    <t>2026-01-23T10:32:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
